--- a/LedCube/switchingTable.xlsx
+++ b/LedCube/switchingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dz\git_microcontrollers\microcontrollers\LedCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4344C2-B31F-4A37-B31C-128B8CB187DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E2CED8-1342-482F-AE10-45C8B88958D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="45" windowWidth="21600" windowHeight="11835" xr2:uid="{834CBF4A-5694-4A25-8ADE-2F453325660C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{834CBF4A-5694-4A25-8ADE-2F453325660C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>D9</t>
   </si>
   <si>
-    <t>D12</t>
-  </si>
-  <si>
     <t>D13</t>
   </si>
   <si>
@@ -847,6 +844,9 @@
   </si>
   <si>
     <t>Переключение (switch), будет у комбинации светодиодов, которые расположены диагонально по отношению друг к другу в схеме (кроме комбинаций загорания "по-столбчно" (таких как, допустим, 1,2,3,4) )</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -918,22 +918,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>234043</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1690007</xdr:rowOff>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>272627</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114760</xdr:rowOff>
+      <xdr:colOff>78921</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F94CFD2-CFCC-C7AA-E9EE-B915929E479F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0BB545-CB4E-1038-1411-889BEDFFA078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,15 +942,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4710793" y="1690007"/>
-          <a:ext cx="3467584" cy="3296110"/>
+          <a:off x="4517571" y="2054678"/>
+          <a:ext cx="3467100" cy="3295650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DBD62C-C5F9-4576-B5C1-1FF799D03AF5}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,19 +1288,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,7 +1489,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1506,7 +1512,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1529,7 +1535,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -1555,7 +1561,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1601,7 +1607,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1624,10 +1630,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1660,10 +1666,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1673,10 +1679,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1686,60 +1692,60 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1749,17 +1755,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1782,25 +1788,25 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1810,27 +1816,27 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1853,82 +1859,82 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -1950,32 +1956,32 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -1998,142 +2004,142 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>3</v>
@@ -2156,10 +2162,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -2169,67 +2175,67 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -2252,145 +2258,145 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -2400,145 +2406,145 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -2548,40 +2554,40 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -2591,247 +2597,247 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -2854,10 +2860,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -2867,55 +2873,55 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -2925,90 +2931,90 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -3018,42 +3024,42 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
@@ -3076,11 +3082,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B221:G221"/>
     <mergeCell ref="B248:G248"/>
     <mergeCell ref="B231:G231"/>
@@ -3090,6 +3091,11 @@
     <mergeCell ref="B164:G164"/>
     <mergeCell ref="B171:G171"/>
     <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LedCube/switchingTable.xlsx
+++ b/LedCube/switchingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dz\git_microcontrollers\microcontrollers\LedCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E2CED8-1342-482F-AE10-45C8B88958D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D022D21E-3F8A-4BF0-9E42-3AA828A28FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{834CBF4A-5694-4A25-8ADE-2F453325660C}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>D9</t>
   </si>
   <si>
-    <t>D13</t>
-  </si>
-  <si>
     <t>1 2</t>
   </si>
   <si>
@@ -847,6 +844,9 @@
   </si>
   <si>
     <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,19 +1288,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" t="s">
         <v>270</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1679,10 +1679,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1692,60 +1692,60 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1755,17 +1755,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1788,25 +1788,25 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1816,27 +1816,27 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1859,82 +1859,82 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -1956,32 +1956,32 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -2004,142 +2004,142 @@
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>3</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -2175,67 +2175,67 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -2258,145 +2258,145 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -2406,145 +2406,145 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -2554,40 +2554,40 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -2597,247 +2597,247 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -2873,55 +2873,55 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -2931,90 +2931,90 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -3024,42 +3024,42 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
@@ -3082,6 +3082,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B221:G221"/>
     <mergeCell ref="B248:G248"/>
     <mergeCell ref="B231:G231"/>
@@ -3091,11 +3096,6 @@
     <mergeCell ref="B164:G164"/>
     <mergeCell ref="B171:G171"/>
     <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
